--- a/vocabualry.xlsx
+++ b/vocabualry.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Acuity = Sharpness</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>tiredness also affects visual acuity</t>
   </si>
@@ -35,53 +32,375 @@
     <t>A motoeisk needs good visual acuity.</t>
   </si>
   <si>
-    <t>Impasses = progress</t>
-  </si>
-  <si>
     <t>The gov had reached an impasses.</t>
   </si>
   <si>
     <t>I see no way out of this impasses.</t>
   </si>
   <si>
-    <t>Nominal = being something in name only but not in reality.</t>
-  </si>
-  <si>
     <t>she asking me a nominal.</t>
   </si>
   <si>
     <t>she doing work nominal.</t>
   </si>
   <si>
-    <t>padantic = narrow focus</t>
-  </si>
-  <si>
     <t>His lecture was so pendantic  and unintersting.</t>
   </si>
   <si>
     <t>He is learned but neither stuffy nor pendentic.</t>
   </si>
   <si>
-    <t>vexation = Irritation</t>
-  </si>
-  <si>
     <t>I am vexation when my project not compleate.</t>
   </si>
   <si>
     <t>He cried with vexation.</t>
+  </si>
+  <si>
+    <t>Sharpness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acuity </t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Impasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> progress</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>being something in name only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> but not in reality.</t>
+  </si>
+  <si>
+    <t>narrow focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irritation</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>harmony or agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am in accord ypur paln </t>
+  </si>
+  <si>
+    <t>he come back of his own accord.</t>
+  </si>
+  <si>
+    <t>Evident</t>
+  </si>
+  <si>
+    <t>sense and judgement</t>
+  </si>
+  <si>
+    <t>it was evident that she was unhappy.</t>
+  </si>
+  <si>
+    <t>she smiled with evident relief.</t>
+  </si>
+  <si>
+    <t>Approch</t>
+  </si>
+  <si>
+    <t>move towerd</t>
+  </si>
+  <si>
+    <t>He has a thoughtful approch to his work.</t>
+  </si>
+  <si>
+    <t>This approch seems very sensible to me.</t>
+  </si>
+  <si>
+    <t>Obtain</t>
+  </si>
+  <si>
+    <t>come into possession</t>
+  </si>
+  <si>
+    <t>you can also obtain Knowledge through practice.</t>
+  </si>
+  <si>
+    <t>you can't obtain my consent by force.</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>Vaxation</t>
+  </si>
+  <si>
+    <t>Padantic</t>
+  </si>
+  <si>
+    <t>Appoint</t>
+  </si>
+  <si>
+    <t>responsibbilty</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>It made sense to appoint a banker to this job.</t>
+  </si>
+  <si>
+    <t>Appont the time and place for the meeting.</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>Uproarious</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Startling</t>
+  </si>
+  <si>
+    <t>very surprising</t>
+  </si>
+  <si>
+    <t>Miserable</t>
+  </si>
+  <si>
+    <t>Unhappy,uncomfortable</t>
+  </si>
+  <si>
+    <t>Apt</t>
+  </si>
+  <si>
+    <t>Suitable in a peticuler situation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tracking wild animals requires great </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>stealth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>The noise of talk and laughter was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>uproarious</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Her technical accomplishment on the piano is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>startling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> I have had a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>miserable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> life.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>This shoe is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>apt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to slip.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,8 +423,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,93 +717,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="5" max="5" width="46.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>14</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>